--- a/Semester 3/Software Engineering/Assignments/Ass_01_Titles.xlsx
+++ b/Semester 3/Software Engineering/Assignments/Ass_01_Titles.xlsx
@@ -468,13 +468,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -660,7 +660,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
